--- a/NaukariProject/src/test/resources/TestData/naukri.xlsx
+++ b/NaukariProject/src/test/resources/TestData/naukri.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -28,13 +28,61 @@
   </si>
   <si>
     <t>tejaswini@24</t>
+  </si>
+  <si>
+    <t>ananthram1113@gmail.com</t>
+  </si>
+  <si>
+    <t>Ananth@4a7</t>
+  </si>
+  <si>
+    <t>adithyaram1113@gmail.com</t>
+  </si>
+  <si>
+    <t>Adithya@113</t>
+  </si>
+  <si>
+    <t>srikanthreddy459@gmail.com</t>
+  </si>
+  <si>
+    <t>Srikanth@12</t>
+  </si>
+  <si>
+    <t>Yeswanth231@gmail.com</t>
+  </si>
+  <si>
+    <t>Yeswanth@451</t>
+  </si>
+  <si>
+    <t>Hema.selenium342@gmail.com</t>
+  </si>
+  <si>
+    <t>Hema@342</t>
+  </si>
+  <si>
+    <t>naveensai649@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen@649</t>
+  </si>
+  <si>
+    <t>ramprasad.selenium@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasad@123</t>
+  </si>
+  <si>
+    <t>majjiteja.98@gmail.com</t>
+  </si>
+  <si>
+    <t>Teja@98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +132,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -196,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,20 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -400,39 +455,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NaukariProject/src/test/resources/TestData/naukri.xlsx
+++ b/NaukariProject/src/test/resources/TestData/naukri.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3D3F1E-480E-4023-BD3A-FDA07F6C6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -76,12 +77,18 @@
   </si>
   <si>
     <t>Teja@98</t>
+  </si>
+  <si>
+    <t>ananthram1708@gmail.com</t>
+  </si>
+  <si>
+    <t>testing@17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,6 +143,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -183,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,33 +563,43 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="B8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="B9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{0B9FCF26-875C-4EFB-864E-401E72989012}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{E2DF6311-DB49-4A78-A632-098BFFB082D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -559,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
